--- a/dataset_7/kto_201901.xlsx
+++ b/dataset_7/kto_201901.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangwook\sw_python\Play_with_Book\외국인관광객분석\data\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caba\workspace\git\crawling_practice\dataset_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BD9175-7726-465A-B52E-285503F4A3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kto_201901" sheetId="1" r:id="rId1"/>
@@ -258,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,6 +618,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -862,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,6 +890,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1204,27 +1217,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:J68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.2109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.0703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.35546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1251,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1270,39 +1283,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>765082</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>10837</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>1423</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>14087</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>125521</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <v>916950</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="8">
         <v>775023</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <v>18.3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +1347,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1366,7 +1379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1398,7 +1411,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1430,7 +1443,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1462,7 +1475,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1526,7 +1539,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1558,7 +1571,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1590,7 +1603,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1622,7 +1635,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1667,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1686,7 +1699,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1731,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1750,7 +1763,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1782,7 +1795,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1814,7 +1827,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1846,7 +1859,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -1878,7 +1891,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -1910,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
@@ -1942,7 +1955,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -1974,7 +1987,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -2006,7 +2019,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -2038,7 +2051,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -2070,7 +2083,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -2102,39 +2115,39 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="8">
         <v>54982</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="7">
         <v>526</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="8">
         <v>2657</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="7">
         <v>479</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="8">
         <v>22277</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="8">
         <v>80921</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="8">
         <v>77166</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="7">
         <v>7.3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -2166,7 +2179,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2198,7 +2211,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2230,7 +2243,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2262,7 +2275,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2294,39 +2307,39 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="8">
         <v>47681</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="8">
         <v>1465</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="7">
         <v>230</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="8">
         <v>1177</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="8">
         <v>19485</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="8">
         <v>70038</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="8">
         <v>66538</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="7">
         <v>5.3</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="7">
         <v>6.3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2358,7 +2371,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2390,7 +2403,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2435,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2454,7 +2467,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -2486,7 +2499,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -2518,7 +2531,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -2550,7 +2563,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -2582,7 +2595,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -2614,7 +2627,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -2646,7 +2659,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -2678,7 +2691,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -2710,7 +2723,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -2742,7 +2755,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -2774,7 +2787,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
@@ -2806,7 +2819,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
@@ -2838,7 +2851,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>60</v>
       </c>
@@ -2870,7 +2883,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>61</v>
       </c>
@@ -2902,7 +2915,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
@@ -2934,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
@@ -2966,7 +2979,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>64</v>
       </c>
@@ -2998,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>65</v>
       </c>
@@ -3030,7 +3043,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>66</v>
       </c>
@@ -3062,39 +3075,39 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="8">
         <v>15379</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="7">
         <v>116</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="7">
         <v>38</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="7">
         <v>39</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="8">
         <v>2052</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="8">
         <v>17624</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="8">
         <v>14899</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="7">
         <v>18.3</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="7">
         <v>1.6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>68</v>
       </c>
@@ -3126,7 +3139,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>69</v>
       </c>
@@ -3158,7 +3171,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>70</v>
       </c>
@@ -3190,39 +3203,39 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="8">
         <v>1136</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="7">
         <v>727</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="7">
         <v>91</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="7">
         <v>212</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="8">
         <v>1524</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="8">
         <v>3690</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="8">
         <v>3148</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="7">
         <v>17.2</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="7">
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>72</v>
       </c>
@@ -3254,7 +3267,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>73</v>
       </c>
@@ -3286,39 +3299,39 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="7">
         <v>33</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="7">
         <v>4</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="7">
         <v>0</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="7">
         <v>1</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="7">
         <v>16</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="7">
         <v>54</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="7">
         <v>66</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="7">
         <v>-18.2</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>75</v>
       </c>
@@ -3350,39 +3363,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A68" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="7">
         <v>0</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="7">
         <v>0</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="7">
         <v>0</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="7">
         <v>0</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="8">
         <v>15526</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="8">
         <v>15526</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="8">
         <v>19196</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="7">
         <v>-19.100000000000001</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="7">
         <v>1.4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>77</v>
       </c>
@@ -3414,7 +3427,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3453,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -3466,7 +3479,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
@@ -3492,7 +3505,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
